--- a/src/test/spreadsheet1/Test_Tags_Spreadsheet.xlsx
+++ b/src/test/spreadsheet1/Test_Tags_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.burgess\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F188F2DF-7D92-46AA-AE1E-0B6A77BEA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE349DF-972F-4C0E-BA04-24D6490F4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="5670" windowWidth="27240" windowHeight="14265" xr2:uid="{06A626A0-9B24-3B4E-B758-D1184758A8B0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27240" windowHeight="14265" xr2:uid="{06A626A0-9B24-3B4E-B758-D1184758A8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Pid</t>
   </si>
@@ -75,38 +75,9 @@
     <t>Approved</t>
   </si>
   <si>
-    <t> °C</t>
-  </si>
-  <si>
     <t>FT-0402</t>
   </si>
   <si>
-    <r>
-      <t>Nm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/h</t>
-    </r>
-  </si>
-  <si>
     <t>FV-0601</t>
   </si>
   <si>
@@ -119,22 +90,6 @@
     <t>R1</t>
   </si>
   <si>
-    <r>
-      <t>N/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
     <t>PT-0604</t>
   </si>
   <si>
@@ -144,22 +99,6 @@
     <t>R2</t>
   </si>
   <si>
-    <r>
-      <t>kg/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
     <t>Ok</t>
   </si>
   <si>
@@ -179,13 +118,22 @@
   </si>
   <si>
     <t>Observations</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Nm3/h</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,14 +152,6 @@
       <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -554,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1741C0F7-8FC4-6E4C-84B4-BB8732AB1C30}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -567,7 +507,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -582,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
@@ -603,11 +543,11 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
         <v>11</v>
@@ -616,7 +556,7 @@
     <row r="3" spans="1:16" ht="18">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -628,61 +568,61 @@
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16">
